--- a/biology/Médecine/Blépharostat/Blépharostat.xlsx
+++ b/biology/Médecine/Blépharostat/Blépharostat.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bl%C3%A9pharostat</t>
+          <t>Blépharostat</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un blépharostat est un appareil médical utilisé en ophtalmologie humaine et vétérinaire. Il s'agit d'une sorte de pince dont l'utilité est de garder l'œil ouvert pendant une intervention médicale : chirurgie, examen ophtalmologique, injection intravitréenne, etc.[1]
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un blépharostat est un appareil médical utilisé en ophtalmologie humaine et vétérinaire. Il s'agit d'une sorte de pince dont l'utilité est de garder l'œil ouvert pendant une intervention médicale : chirurgie, examen ophtalmologique, injection intravitréenne, etc.
 Les branches latérales du blépharostat sont conçues de façon à se glisser sous les paupières inférieure et supérieure, après quoi l'instrument est maintenu en position ouverte par le praticien en l'adaptant à la morphologie du patient ou de l'animal.
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bl%C3%A9pharostat</t>
+          <t>Blépharostat</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Dans la culture populaire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une célèbre scène du film Orange mécanique (1971) montre le protagoniste, Alex, subissant des séances de thérapie par aversion : attaché à un fauteuil, les yeux maintenus ouverts à l'aide de deux blépharostats, il est contraint de regarder des scènes filmées de violence et de sexe[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une célèbre scène du film Orange mécanique (1971) montre le protagoniste, Alex, subissant des séances de thérapie par aversion : attaché à un fauteuil, les yeux maintenus ouverts à l'aide de deux blépharostats, il est contraint de regarder des scènes filmées de violence et de sexe.
 </t>
         </is>
       </c>
